--- a/biology/Zoologie/Demodecidae/Demodecidae.xlsx
+++ b/biology/Zoologie/Demodecidae/Demodecidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Demodecidae sont une des nombreuses familles d'acariens, appartenant à l'ordre des Trombidiformes.
 Les deux espèces les plus connues de cette famille sont du genre Demodex, elles ont une forme inhabituellement allongée pour des acariens, leur habitat naturel est la peau humaine. Elles font partie du microbiote cutané humain avec bien d'autres microorganismes.
@@ -513,7 +525,9 @@
           <t>Description et mode de vie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Demodecidae sont des animaux minuscules vivant sur divers mammifères. Certaines espèces de Demodex ne vivent que dans des régions bien définies de leur hôte comme par exemple les glandes lacrymales, le conduit auditif externe, la langue.
 </t>
@@ -544,9 +558,11 @@
           <t>Taxonomie et classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (29 juin 2020)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (29 juin 2020) :
 genre Apodemodex Bukva, 1996
 genre Demodex Owen, 1843
 genre Epimyodex Fain &amp; Orto, 1969
@@ -582,7 +598,9 @@
           <t>Espèces du genre Demodex</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Demodex brevis 
 Demodex bovis 
@@ -621,6 +639,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -647,6 +667,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -673,6 +695,8 @@
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
